--- a/example/001/excel/game_config_01.xlsx
+++ b/example/001/excel/game_config_01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11535" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="GAME_CFG_STRUCT_1" sheetId="3" r:id="rId1"/>
-    <sheet name="BAKBAK" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="GAME_CFG_STRUCT_1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" iterate="1"/>
   <extLst>
@@ -26,139 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
-  <si>
-    <t>CFG_1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_5-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_8-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_9-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_10-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_10-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_10-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_10-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_11-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_11-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_11-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_11-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFG_12-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAME_CFG_STRUCT_1.s1_l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t>CFG_1-1</t>
   </si>
@@ -767,465 +636,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="16" max="16" width="21.75" customWidth="1"/>
-    <col min="17" max="17" width="27.375" customWidth="1"/>
-    <col min="18" max="18" width="39.625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>61</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="69" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="1">
-        <v>323</v>
-      </c>
-      <c r="K3" s="1">
-        <v>323</v>
-      </c>
-      <c r="L3" s="1">
-        <v>323</v>
-      </c>
-      <c r="M3" s="1">
-        <v>323</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="86.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4342</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4342</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4342</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4342</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="51.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.05</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="1">
-        <v>51212</v>
-      </c>
-      <c r="K5" s="1">
-        <v>51212</v>
-      </c>
-      <c r="L5" s="1">
-        <v>51212</v>
-      </c>
-      <c r="M5" s="1">
-        <v>51212</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.5330000000000004</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1225</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1225</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1225</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1225</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25.042999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.5330000000000004</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="1">
-        <v>212521</v>
-      </c>
-      <c r="K7" s="1">
-        <v>212521</v>
-      </c>
-      <c r="L7" s="1">
-        <v>212521</v>
-      </c>
-      <c r="M7" s="1">
-        <v>212521</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5.5330000000000004</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="1">
-        <v>178</v>
-      </c>
-      <c r="K8" s="1">
-        <v>178</v>
-      </c>
-      <c r="L8" s="1">
-        <v>178</v>
-      </c>
-      <c r="M8" s="1">
-        <v>178</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>90</v>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1280,22 +806,22 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1333,25 +859,25 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1361,6 +887,475 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="21.75" customWidth="1"/>
+    <col min="17" max="17" width="27.375" customWidth="1"/>
+    <col min="18" max="18" width="39.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="69" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1">
+        <v>323</v>
+      </c>
+      <c r="K3" s="1">
+        <v>323</v>
+      </c>
+      <c r="L3" s="1">
+        <v>323</v>
+      </c>
+      <c r="M3" s="1">
+        <v>323</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="86.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4342</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4342</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4342</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4342</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1">
+        <v>51212</v>
+      </c>
+      <c r="K5" s="1">
+        <v>51212</v>
+      </c>
+      <c r="L5" s="1">
+        <v>51212</v>
+      </c>
+      <c r="M5" s="1">
+        <v>51212</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1225</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1225</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1225</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1225</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25.042999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1">
+        <v>212521</v>
+      </c>
+      <c r="K7" s="1">
+        <v>212521</v>
+      </c>
+      <c r="L7" s="1">
+        <v>212521</v>
+      </c>
+      <c r="M7" s="1">
+        <v>212521</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5330000000000004</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1">
+        <v>178</v>
+      </c>
+      <c r="K8" s="1">
+        <v>178</v>
+      </c>
+      <c r="L8" s="1">
+        <v>178</v>
+      </c>
+      <c r="M8" s="1">
+        <v>178</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/example/001/excel/game_config_01.xlsx
+++ b/example/001/excel/game_config_01.xlsx
@@ -17,7 +17,7 @@
     <sheet name="GAME_CFG_STRUCT_1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" iterate="1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,9 +143,6 @@
     <t>何处话凄凉</t>
   </si>
   <si>
-    <t>MON</t>
-  </si>
-  <si>
     <t>我爱你，中国！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我能帮助你吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,9 +212,6 @@
     <t>烈士暮年，壮心不已。</t>
   </si>
   <si>
-    <t>SUN</t>
-  </si>
-  <si>
     <t>白发三千丈，代码写万行，不知程序里，何处话凄凉，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +224,18 @@
   </si>
   <si>
     <t>ABCDEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +893,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="86.25" x14ac:dyDescent="0.2">
@@ -1092,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="J4" s="1">
         <v>4342</v>
@@ -1110,19 +1112,19 @@
         <v>4342</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="51.75" x14ac:dyDescent="0.2">
@@ -1151,7 +1153,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1">
         <v>51212</v>
@@ -1166,19 +1168,19 @@
         <v>51212</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
@@ -1204,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J6" s="1">
         <v>1225</v>
@@ -1222,19 +1224,19 @@
         <v>1225</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
@@ -1260,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1">
         <v>212521</v>
@@ -1278,7 +1280,7 @@
         <v>212521</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>34</v>
@@ -1290,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="103.5" x14ac:dyDescent="0.2">
@@ -1316,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1">
         <v>178</v>
@@ -1334,19 +1336,19 @@
         <v>178</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
